--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_hoog.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_hoog.xlsx
@@ -4410,7 +4410,7 @@
         <v>1.053383471999979</v>
       </c>
       <c r="D156">
-        <v>0.9851682387696213</v>
+        <v>0.9851682387696212</v>
       </c>
       <c r="E156">
         <v>1.041199274684852</v>
@@ -4436,7 +4436,7 @@
         <v>1.146562691536645</v>
       </c>
       <c r="D157">
-        <v>0.9142749187225783</v>
+        <v>0.9142749187225782</v>
       </c>
       <c r="E157">
         <v>1.127153544648661</v>
@@ -10286,7 +10286,7 @@
         <v>1.140830846832246</v>
       </c>
       <c r="D382">
-        <v>0.6054569678769346</v>
+        <v>0.6054569678769345</v>
       </c>
       <c r="E382">
         <v>1.102794166744392</v>
